--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423272.7466446825</v>
+        <v>499613.5905358114</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11802667.5878514</v>
+        <v>11828529.48091378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9606519.469858326</v>
+        <v>9815842.041535001</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8452458.768478995</v>
+        <v>8311243.777980549</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>49.6510137751944</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>11.62354557054736</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.11624742796371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.15831191777807</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4022924851448</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>69.56693840343073</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.08088570333381</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>61.27455934574178</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>134.6446478104794</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663196</v>
+        <v>133.1329495999817</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663196</v>
+        <v>142.3743074279355</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>125.4032899825256</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.57158826968308</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>117.8755539043373</v>
       </c>
       <c r="I7" t="n">
-        <v>91.45139852367926</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>12.28055101240926</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>137.6214924937145</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>28.33592091243878</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>130.9356567043872</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>44.275769740903</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>77.97021545617385</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.27797955586297</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>20.64107630343883</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>230.0781300285528</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247047</v>
@@ -1421,7 +1423,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
         <v>251.045250128462</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>9.99112361440214</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>55.76699635726926</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>113.1568024905088</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
         <v>192.0665623188214</v>
@@ -1780,7 +1782,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>43.30112502764913</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>180.4174897749676</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.1935463647639</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.0475434177336</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>206.0468444966328</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>296.8175952174234</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.318056147171</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>74.97158633055079</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>209.2313508844411</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>279.2609931355724</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T24" t="n">
         <v>192.0665623188214</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.87534259307424</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.781160222249139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>167.2375524652553</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>193.1994278308472</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.3332554667401</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
@@ -2792,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>288.3551381560173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>208.2474868886327</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>74.97158633055101</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.3332554667402</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>18.09613988598333</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.4467562824249</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>79.41653965146573</v>
       </c>
       <c r="T34" t="n">
-        <v>105.5027752869399</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>286.3221145246749</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>258.2471978122843</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>79.41653965146573</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>60.24399451265849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>210.4888426753274</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3585,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646386</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>32.36212711058013</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>170.9812334109288</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>228.3619192228255</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>195.9404637567434</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>196.4017961483595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>59.22437893269722</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>131.9809553984402</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269609</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705013</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>7.601081015448052</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>170.9812334109288</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>216.3742593250948</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>216.3742593250948</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>216.3742593250948</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>75.83498982321458</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>74.43662409167088</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>121.7749628401741</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>171.0720197970276</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>239.943288816424</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>228.1152144468599</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>216.3742593250948</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>216.3742593250948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>19.82419085809639</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>5.565355072274463</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>51.88789622742866</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>120.7591652468251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>189.6304342662215</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>249.5278572568952</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="U3" t="n">
-        <v>409.399488203391</v>
+        <v>230.6330951109168</v>
       </c>
       <c r="V3" t="n">
-        <v>393.841617006275</v>
+        <v>160.3634603599766</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897903</v>
+        <v>160.3634603599766</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>160.3634603599766</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>90.09382560903651</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="C4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="D4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>75.83498982321458</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>5.565355072274458</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>74.43662409167088</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819953</v>
+        <v>140.52521557493</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>140.52521557493</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>209.3964845943265</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>278.2677536137229</v>
       </c>
       <c r="R4" t="n">
-        <v>655.0711509851443</v>
+        <v>207.9981188627828</v>
       </c>
       <c r="S4" t="n">
-        <v>655.0711509851443</v>
+        <v>207.9981188627828</v>
       </c>
       <c r="T4" t="n">
-        <v>655.0711509851443</v>
+        <v>207.9981188627828</v>
       </c>
       <c r="U4" t="n">
-        <v>655.0711509851443</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="V4" t="n">
-        <v>655.0711509851443</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="W4" t="n">
-        <v>655.0711509851443</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="X4" t="n">
-        <v>655.0711509851443</v>
+        <v>146.1046245741547</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.6513659686595</v>
+        <v>146.1046245741547</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.842993615825</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="C5" t="n">
-        <v>181.842993615825</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330557</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330557</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330557</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330557</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330557</v>
+        <v>147.3946393522948</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330557</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>80.16809258532615</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>109.9818347094832</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>183.870179983854</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>297.7546383056601</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123825</v>
+        <v>418.0956746044815</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985575</v>
+        <v>518.3950414639799</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020256</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="V5" t="n">
-        <v>560.682563648794</v>
+        <v>435.0195028430738</v>
       </c>
       <c r="W5" t="n">
-        <v>560.682563648794</v>
+        <v>291.2070710976843</v>
       </c>
       <c r="X5" t="n">
-        <v>560.682563648794</v>
+        <v>291.2070710976843</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.2627786323095</v>
+        <v>147.3946393522948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192.7966468059539</v>
+        <v>138.0599344755738</v>
       </c>
       <c r="C6" t="n">
-        <v>192.7966468059539</v>
+        <v>138.0599344755738</v>
       </c>
       <c r="D6" t="n">
-        <v>43.86223714470262</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="E6" t="n">
-        <v>43.86223714470262</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="F6" t="n">
-        <v>43.86223714470262</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="G6" t="n">
-        <v>43.86223714470262</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="H6" t="n">
-        <v>43.86223714470262</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330557</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330557</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024202</v>
+        <v>43.16970089029063</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772646</v>
+        <v>132.2240462510086</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>255.5031350371264</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546593</v>
+        <v>396.4536993907826</v>
       </c>
       <c r="O6" t="n">
-        <v>649.210157847634</v>
+        <v>503.1761336477772</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017052</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843266</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="S6" t="n">
-        <v>571.6362168389229</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="T6" t="n">
-        <v>571.6362168389229</v>
+        <v>425.6847979663527</v>
       </c>
       <c r="U6" t="n">
-        <v>571.6362168389229</v>
+        <v>425.6847979663527</v>
       </c>
       <c r="V6" t="n">
-        <v>382.2164318224384</v>
+        <v>425.6847979663527</v>
       </c>
       <c r="W6" t="n">
-        <v>382.2164318224384</v>
+        <v>281.8723662209633</v>
       </c>
       <c r="X6" t="n">
-        <v>192.7966468059539</v>
+        <v>281.8723662209633</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.7966468059539</v>
+        <v>281.8723662209633</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="C7" t="n">
-        <v>581.1661657373717</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="D7" t="n">
-        <v>431.0495263250359</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="E7" t="n">
-        <v>431.0495263250359</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="F7" t="n">
-        <v>431.0495263250359</v>
+        <v>130.4561606592221</v>
       </c>
       <c r="G7" t="n">
-        <v>262.3607028879509</v>
+        <v>130.4561606592221</v>
       </c>
       <c r="H7" t="n">
-        <v>107.377196997224</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330557</v>
+        <v>11.38994459423484</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428067</v>
+        <v>90.82652800469604</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394156</v>
+        <v>177.3872297607367</v>
       </c>
       <c r="M7" t="n">
-        <v>401.713813934072</v>
+        <v>318.3377941143929</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287285</v>
+        <v>325.5965339587831</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652786</v>
+        <v>466.5470983124393</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652786</v>
+        <v>569.4972297117422</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652786</v>
+        <v>557.0926327295106</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652786</v>
+        <v>418.081024150001</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="T7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="U7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="V7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="W7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="X7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
       <c r="Y7" t="n">
-        <v>750.1023486652786</v>
+        <v>274.2685924046115</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419.733006062639</v>
+        <v>170.362893470693</v>
       </c>
       <c r="C8" t="n">
-        <v>419.733006062639</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D8" t="n">
-        <v>419.733006062639</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E8" t="n">
-        <v>419.733006062639</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F8" t="n">
-        <v>287.4747669672984</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917556</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030603</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991315</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358411</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946889</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="T8" t="n">
-        <v>686.1106626298169</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="U8" t="n">
-        <v>686.1106626298169</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="V8" t="n">
-        <v>419.733006062639</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="W8" t="n">
-        <v>419.733006062639</v>
+        <v>549.2024635036631</v>
       </c>
       <c r="X8" t="n">
-        <v>419.733006062639</v>
+        <v>359.782678487178</v>
       </c>
       <c r="Y8" t="n">
-        <v>419.733006062639</v>
+        <v>359.782678487178</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
       <c r="C9" t="n">
-        <v>462.9384134849055</v>
+        <v>548.466263003202</v>
       </c>
       <c r="D9" t="n">
-        <v>418.2154137466196</v>
+        <v>399.5318533419508</v>
       </c>
       <c r="E9" t="n">
-        <v>258.9779587411641</v>
+        <v>240.2943983364952</v>
       </c>
       <c r="F9" t="n">
-        <v>258.9779587411641</v>
+        <v>93.75984036338022</v>
       </c>
       <c r="G9" t="n">
-        <v>121.5812722902314</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>117.4455628004801</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>338.874007230231</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>722.919292284329</v>
       </c>
       <c r="S9" t="n">
-        <v>887.8833378166544</v>
+        <v>722.919292284329</v>
       </c>
       <c r="T9" t="n">
-        <v>691.074259448092</v>
+        <v>722.919292284329</v>
       </c>
       <c r="U9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
       <c r="V9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
       <c r="W9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
       <c r="X9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
       <c r="Y9" t="n">
-        <v>462.9384134849055</v>
+        <v>722.919292284329</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.09711040012049</v>
+        <v>565.0770331543888</v>
       </c>
       <c r="C10" t="n">
-        <v>21.09711040012049</v>
+        <v>396.1408502264819</v>
       </c>
       <c r="D10" t="n">
-        <v>21.09711040012049</v>
+        <v>246.0242108141462</v>
       </c>
       <c r="E10" t="n">
-        <v>21.09711040012049</v>
+        <v>98.11111723175307</v>
       </c>
       <c r="F10" t="n">
-        <v>21.09711040012049</v>
+        <v>98.11111723175307</v>
       </c>
       <c r="G10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>100.3335179349387</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375337</v>
+        <v>285.9838492295957</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227046</v>
+        <v>471.6341805242527</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075543</v>
+        <v>634.3723839608029</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="S10" t="n">
-        <v>1034.005947982349</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="T10" t="n">
-        <v>808.5369117403633</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="U10" t="n">
-        <v>542.1592551731853</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="V10" t="n">
-        <v>287.4747669672984</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="W10" t="n">
-        <v>21.09711040012049</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="X10" t="n">
-        <v>21.09711040012049</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.09711040012049</v>
+        <v>746.7254979846285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.0225872761075</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C11" t="n">
-        <v>350.0225872761075</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D11" t="n">
-        <v>350.0225872761075</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E11" t="n">
-        <v>350.0225872761075</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F11" t="n">
-        <v>350.0225872761075</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0225872761075</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H11" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
         <v>187.5281822362819</v>
@@ -5045,10 +5047,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
         <v>1656.671415230817</v>
@@ -5069,22 +5071,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W11" t="n">
-        <v>1500.227517577121</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X11" t="n">
-        <v>1126.761759316041</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y11" t="n">
-        <v>736.6224273402293</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
         <v>113.5972052500114</v>
@@ -5124,13 +5126,13 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625332</v>
+        <v>790.7764984014352</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.253210781439</v>
+        <v>1154.038517360655</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.432194560477</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O12" t="n">
         <v>2175.502629736639</v>
@@ -5151,16 +5153,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020476</v>
@@ -5224,25 +5226,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V13" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W13" t="n">
-        <v>1636.446120074497</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X13" t="n">
-        <v>1490.124203461141</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.331624317611</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.326884986529</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C14" t="n">
-        <v>1238.326884986529</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D14" t="n">
-        <v>1238.326884986529</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E14" t="n">
-        <v>1238.326884986529</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F14" t="n">
-        <v>827.340980196921</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6362299212099</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H14" t="n">
-        <v>107.5770859187801</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
         <v>1656.671415230817</v>
@@ -5306,22 +5308,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U14" t="n">
-        <v>2308.758267664335</v>
+        <v>2239.293886510516</v>
       </c>
       <c r="V14" t="n">
-        <v>1977.695380320764</v>
+        <v>1908.230999166945</v>
       </c>
       <c r="W14" t="n">
-        <v>1624.92672505065</v>
+        <v>1555.462343896831</v>
       </c>
       <c r="X14" t="n">
-        <v>1624.92672505065</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.92672505065</v>
+        <v>1181.996585635751</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L15" t="n">
-        <v>979.6730931919905</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M15" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N15" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P15" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5388,7 +5390,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
@@ -5397,7 +5399,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5428,52 +5430,52 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X16" t="n">
         <v>1490.124203461141</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1330.099343395678</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C17" t="n">
-        <v>1330.099343395678</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="D17" t="n">
-        <v>1330.099343395678</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="E17" t="n">
-        <v>944.3110907974333</v>
+        <v>1060.177330294905</v>
       </c>
       <c r="F17" t="n">
-        <v>533.3251860078258</v>
+        <v>649.1914255052977</v>
       </c>
       <c r="G17" t="n">
-        <v>117.6204357321147</v>
+        <v>233.4866752295866</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I17" t="n">
         <v>51.24678656800311</v>
@@ -5516,7 +5518,7 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L17" t="n">
         <v>795.755353087291</v>
@@ -5540,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.901402779182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.901402779182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>2437.901402779182</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V17" t="n">
-        <v>2106.838515435611</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W17" t="n">
-        <v>2106.838515435611</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X17" t="n">
-        <v>2106.838515435611</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y17" t="n">
-        <v>1716.699183459799</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>298.3188265310614</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L18" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5625,16 +5627,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.5512797486884</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C19" t="n">
-        <v>705.6150968207816</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D19" t="n">
-        <v>555.4984574084458</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E19" t="n">
-        <v>407.5853638260527</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F19" t="n">
-        <v>260.6954163281423</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G19" t="n">
-        <v>92.70895163642089</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
         <v>51.24678656800311</v>
@@ -5671,16 +5673,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
@@ -5698,25 +5700,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S19" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T19" t="n">
-        <v>1310.884232784815</v>
+        <v>1129.105839995766</v>
       </c>
       <c r="U19" t="n">
-        <v>1310.884232784815</v>
+        <v>839.987502499604</v>
       </c>
       <c r="V19" t="n">
-        <v>1056.199744578928</v>
+        <v>839.987502499604</v>
       </c>
       <c r="W19" t="n">
-        <v>1056.199744578928</v>
+        <v>550.5703324626435</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.199744578928</v>
+        <v>550.5703324626435</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.199744578928</v>
+        <v>550.5703324626435</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1382.349898862467</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C20" t="n">
-        <v>1013.387381922056</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D20" t="n">
-        <v>655.1216833153051</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E20" t="n">
-        <v>655.1216833153051</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F20" t="n">
-        <v>655.1216833153051</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G20" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
@@ -5780,22 +5782,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U20" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V20" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W20" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1768.949738926589</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L21" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M21" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N21" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>2015.115393042427</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5862,16 +5864,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1030.179356506102</v>
+        <v>614.0149486813316</v>
       </c>
       <c r="C22" t="n">
-        <v>918.7469765594642</v>
+        <v>445.0787657534247</v>
       </c>
       <c r="D22" t="n">
-        <v>768.6303371471284</v>
+        <v>294.9621263410889</v>
       </c>
       <c r="E22" t="n">
-        <v>620.7172435647353</v>
+        <v>294.9621263410889</v>
       </c>
       <c r="F22" t="n">
-        <v>473.8272960668249</v>
+        <v>294.9621263410889</v>
       </c>
       <c r="G22" t="n">
-        <v>305.8408313751036</v>
+        <v>126.9756616493675</v>
       </c>
       <c r="H22" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
@@ -5932,28 +5934,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S22" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T22" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V22" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W22" t="n">
-        <v>1439.817372234359</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.827821336341</v>
+        <v>1016.455992655101</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.827821336341</v>
+        <v>795.6634135115713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1059.365742829028</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="C23" t="n">
-        <v>848.0209439558549</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="D23" t="n">
-        <v>848.0209439558549</v>
+        <v>1130.102755203908</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2326913576107</v>
+        <v>744.3145026056636</v>
       </c>
       <c r="F23" t="n">
-        <v>51.24678656800311</v>
+        <v>333.3285978160561</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>333.3285978160561</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J23" t="n">
         <v>187.5281822362817</v>
@@ -5993,7 +5995,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6023,16 +6025,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.570673130041</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X23" t="n">
-        <v>1836.104914868961</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y23" t="n">
-        <v>1445.96558289315</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G24" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J24" t="n">
-        <v>114.5432626034355</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>299.2648838844854</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L24" t="n">
-        <v>593.9684409159571</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M24" t="n">
-        <v>957.2304598751772</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O24" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6099,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6108,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>977.1399948936614</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="C25" t="n">
-        <v>977.1399948936614</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="D25" t="n">
-        <v>977.1399948936614</v>
+        <v>130.9188497933306</v>
       </c>
       <c r="E25" t="n">
-        <v>977.1399948936614</v>
+        <v>130.9188497933306</v>
       </c>
       <c r="F25" t="n">
-        <v>977.1399948936614</v>
+        <v>130.9188497933306</v>
       </c>
       <c r="G25" t="n">
-        <v>977.1399948936614</v>
+        <v>130.9188497933306</v>
       </c>
       <c r="H25" t="n">
-        <v>977.1399948936614</v>
+        <v>130.9188497933306</v>
       </c>
       <c r="I25" t="n">
-        <v>977.1399948936614</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J25" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K25" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M25" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N25" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P25" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.148693270334</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.030355774172</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.345867568285</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.928697531324</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="X25" t="n">
-        <v>978.939146633307</v>
+        <v>281.0354892056664</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.1399948936614</v>
+        <v>281.0354892056664</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1251.46096678957</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C26" t="n">
-        <v>882.4984498491583</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D26" t="n">
-        <v>524.2327512424079</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="E26" t="n">
-        <v>355.3059305704328</v>
+        <v>657.3836285604866</v>
       </c>
       <c r="F26" t="n">
-        <v>355.3059305704328</v>
+        <v>246.3977237708791</v>
       </c>
       <c r="G26" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U26" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V26" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W26" t="n">
-        <v>1624.92672505065</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X26" t="n">
-        <v>1251.46096678957</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1251.46096678957</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L27" t="n">
-        <v>979.6730931919906</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M27" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N27" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P27" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6336,7 +6338,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
@@ -6345,7 +6347,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.7955294637002</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C28" t="n">
-        <v>172.7955294637002</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D28" t="n">
-        <v>172.7955294637002</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E28" t="n">
-        <v>172.7955294637002</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F28" t="n">
-        <v>172.7955294637002</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6409,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U28" t="n">
-        <v>1347.327782578335</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V28" t="n">
-        <v>1092.643294372448</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W28" t="n">
-        <v>803.2261243354874</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X28" t="n">
-        <v>575.23657343747</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y28" t="n">
-        <v>354.4439942939399</v>
+        <v>51.24678656800312</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728.3028554854568</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C29" t="n">
-        <v>437.0350391662473</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D29" t="n">
-        <v>437.0350391662473</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E29" t="n">
-        <v>51.2467865680031</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
         <v>795.7553530872915</v>
@@ -6497,16 +6499,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V29" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W29" t="n">
-        <v>1878.50778578647</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X29" t="n">
-        <v>1505.04202752539</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y29" t="n">
-        <v>1114.902695549579</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L30" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M30" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N30" t="n">
         <v>1635.455679701987</v>
@@ -6573,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6582,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.2467865680031</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="C31" t="n">
-        <v>51.2467865680031</v>
+        <v>445.0787657534249</v>
       </c>
       <c r="D31" t="n">
-        <v>51.2467865680031</v>
+        <v>294.9621263410892</v>
       </c>
       <c r="E31" t="n">
-        <v>51.2467865680031</v>
+        <v>294.9621263410892</v>
       </c>
       <c r="F31" t="n">
-        <v>51.2467865680031</v>
+        <v>294.9621263410892</v>
       </c>
       <c r="G31" t="n">
-        <v>51.2467865680031</v>
+        <v>126.9756616493678</v>
       </c>
       <c r="H31" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
@@ -6643,28 +6645,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S31" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T31" t="n">
-        <v>1514.8973771788</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U31" t="n">
-        <v>1225.779039682638</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V31" t="n">
-        <v>971.0945514767509</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W31" t="n">
-        <v>681.6773814397902</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X31" t="n">
-        <v>453.6878305417729</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.8952513982428</v>
+        <v>795.6634135115715</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1593.528088680778</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C32" t="n">
-        <v>1224.565571740366</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D32" t="n">
-        <v>866.2998731336158</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="E32" t="n">
-        <v>480.5116205353716</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F32" t="n">
-        <v>69.52571574576405</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G32" t="n">
         <v>51.2467865680031</v>
@@ -6728,22 +6730,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T32" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U32" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V32" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W32" t="n">
-        <v>2353.59368700598</v>
+        <v>2339.665837205786</v>
       </c>
       <c r="X32" t="n">
-        <v>1980.1279287449</v>
+        <v>1966.200078944706</v>
       </c>
       <c r="Y32" t="n">
-        <v>1980.1279287449</v>
+        <v>1576.060746968895</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M33" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N33" t="n">
-        <v>1565.661695681274</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O33" t="n">
         <v>2199.840679460312</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.710580560016</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T34" t="n">
-        <v>2259.142120674218</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U34" t="n">
-        <v>1970.023783178056</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.339294972169</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W34" t="n">
-        <v>1425.922124935208</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X34" t="n">
-        <v>1197.932574037191</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1471.210842731383</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C35" t="n">
-        <v>1471.210842731383</v>
+        <v>1467.142397928549</v>
       </c>
       <c r="D35" t="n">
-        <v>1471.210842731383</v>
+        <v>1108.876699321799</v>
       </c>
       <c r="E35" t="n">
-        <v>1181.996585635751</v>
+        <v>723.0884467235544</v>
       </c>
       <c r="F35" t="n">
-        <v>771.0106808461439</v>
+        <v>312.1025419339468</v>
       </c>
       <c r="G35" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H35" t="n">
         <v>51.2467865680031</v>
@@ -6935,13 +6937,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6971,16 +6973,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V35" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W35" t="n">
-        <v>2231.276441056584</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X35" t="n">
-        <v>1857.810682795504</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y35" t="n">
-        <v>1857.810682795504</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L36" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M36" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N36" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P36" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1146.076177821568</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I37" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M37" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N37" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P37" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q37" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.127174075598</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.148693270334</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.030355774172</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.345867568285</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W37" t="n">
-        <v>1206.928697531324</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X37" t="n">
-        <v>1146.076177821568</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y37" t="n">
-        <v>1146.076177821568</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>902.2877029482377</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C38" t="n">
-        <v>533.3251860078259</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D38" t="n">
-        <v>533.3251860078259</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E38" t="n">
-        <v>533.3251860078259</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F38" t="n">
-        <v>533.3251860078259</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I38" t="n">
         <v>51.2467865680031</v>
@@ -7205,19 +7207,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U38" t="n">
-        <v>2349.724335798814</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V38" t="n">
-        <v>2018.661448455243</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W38" t="n">
-        <v>1665.892793185129</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.427034924049</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y38" t="n">
-        <v>902.2877029482377</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D39" t="n">
         <v>607.9167021542603</v>
@@ -7251,28 +7253,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L39" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M39" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N39" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O39" t="n">
-        <v>2015.115393042426</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1326.678288687375</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C40" t="n">
-        <v>1157.742105759468</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D40" t="n">
-        <v>1157.742105759468</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E40" t="n">
-        <v>1009.829012177075</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F40" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G40" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H40" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I40" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T40" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.220990903993</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.536502698106</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.119332661145</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X40" t="n">
-        <v>1729.119332661145</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y40" t="n">
-        <v>1508.326753517615</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1990.953909778728</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="C41" t="n">
-        <v>1621.991392838317</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>692.901296633192</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>281.9153918435845</v>
       </c>
       <c r="G41" t="n">
         <v>51.2467865680031</v>
@@ -7409,13 +7411,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7436,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W41" t="n">
-        <v>2364.419668039808</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X41" t="n">
-        <v>1990.953909778728</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y41" t="n">
-        <v>1990.953909778728</v>
+        <v>1465.289389295558</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L42" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1444.105910816297</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C43" t="n">
-        <v>1275.16972788839</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D43" t="n">
-        <v>1125.053088476054</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P43" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q43" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>2562.339328400155</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U43" t="n">
-        <v>2562.339328400155</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V43" t="n">
-        <v>2363.953675725044</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W43" t="n">
-        <v>2074.536505688084</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X43" t="n">
-        <v>1846.546954790066</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y43" t="n">
-        <v>1625.754375646536</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1224.085859695932</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>855.1233427555203</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>496.8576441487698</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>111.0693915505256</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>51.2467865680031</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362814</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816078</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.59368700598</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2353.59368700598</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V44" t="n">
-        <v>2353.59368700598</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.825031735865</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>2000.825031735865</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1610.685699760054</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>507.2413987429755</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>801.9449557744472</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.206974733667</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.492103330613</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>1884.562538506774</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>977.139994893661</v>
+        <v>1640.204086189705</v>
       </c>
       <c r="C46" t="n">
-        <v>977.139994893661</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="D46" t="n">
-        <v>977.139994893661</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="E46" t="n">
-        <v>977.139994893661</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="F46" t="n">
-        <v>977.139994893661</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G46" t="n">
-        <v>977.139994893661</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H46" t="n">
-        <v>977.139994893661</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>977.139994893661</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>1002.60916787878</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>1174.299679627705</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>1449.530858294981</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>1750.112669035316</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>2048.981932571481</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>2309.019775324693</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>2508.006390496681</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.710580560016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>2142.732099754752</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.023783178056</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.339294972169</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W46" t="n">
-        <v>1425.922124935208</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="X46" t="n">
-        <v>1197.932574037191</v>
+        <v>2042.645130163475</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.139994893661</v>
+        <v>1821.852551019945</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45.63689302957769</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>86.71378237937844</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>31.81417303898019</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.30578359965841</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.810057396252944</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>50.01861771953253</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>46.18894706358475</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697148</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>98.05411448470493</v>
       </c>
       <c r="M4" t="n">
-        <v>154.1946371899308</v>
+        <v>93.50069103046249</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>18.17171782551225</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>106.8697326270088</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>120.7404394159927</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>83.57547396880737</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8234,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.896092348938453</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>27.40733650507471</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.641717224085085</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.56275186471051</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>91.14418583058408</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457082</v>
+        <v>142.9938737355457</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711115</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>156.120234508982</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>99.37288961069065</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528973</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>199.7516311504061</v>
       </c>
       <c r="M12" t="n">
-        <v>255.5240487471574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L21" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>162.0073097921338</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9556134883071792</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>168.7434581780642</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>224.3355197601773</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>305.1601501039157</v>
+        <v>255.8421700460948</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>20.9377812015499</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>186.5911984019046</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.4330134067482</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873861</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>312.363431668831</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>337.3091073382807</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>344.1403822543473</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>358.1075551079217</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>34.42430210594135</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>45.89028585127768</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>217.3982946642805</v>
+        <v>163.2336487459945</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>136.1157573738736</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>86.29746321030916</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>64.3620169774486</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>42.7627903004125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>26.2361918182916</v>
       </c>
       <c r="R4" t="n">
-        <v>38.74148390735657</v>
+        <v>75.54826806551924</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>225.0054346064933</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>189.5105044445887</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.3357770907805</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>319.3306686698467</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368145</v>
+        <v>26.31204018479187</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>164.1979589162674</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>214.4854803065196</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1882960738881</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038153</v>
+        <v>194.6193088701532</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>206.8666612894775</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897339</v>
+        <v>243.863631228118</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>24.15887622193179</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>22.04177558211319</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2911005550289</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>102.0713154153728</v>
       </c>
       <c r="I6" t="n">
-        <v>20.20722348582352</v>
+        <v>53.16211366621026</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.8156871990432</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>152.1349941930936</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>53.54844379794298</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.872144146226</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310563</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>109.3206757329841</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22942,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>3.046740594995697</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.1086686271243</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36.50707410087436</v>
       </c>
       <c r="I7" t="n">
-        <v>34.25582124718743</v>
+        <v>128.9169849340377</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553089</v>
+        <v>30.97981141132913</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>66.26602086387228</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.175716303489</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2709033165999</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>336.9369708585688</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.9403890373243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>103.1692958237358</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>58.19357390960148</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23176,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>84.72395564685121</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>184.0780879401549</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>70.94042253385254</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>339.2498451030109</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.942916315201238</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>137.8884476379533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
         <v>194.6624603617375</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>182.408530361388</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>120.6010627874377</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2586690340304898</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
         <v>206.6581849802338</v>
@@ -23789,13 +23791,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>106.2039657373952</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23938,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.70185150057912</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>114.7301075555305</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -24020,13 +24022,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>56.9287649514568</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>72.27992282457805</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
         <v>220.7486959972119</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>156.0415408865664</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>21.75755942683293</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24263,13 +24265,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>25.92125261082634</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.8034931298457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>214.6928176070065</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>218.3482749421068</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
         <v>65.70991267247049</v>
@@ -24497,19 +24499,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.97334457806406</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24649,10 +24651,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24680,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>76.9177536149902</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
@@ -24737,13 +24739,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>161.4836137898363</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>72.27992282457784</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>100.4154405304718</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24923,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>393.4515628869706</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -24968,7 +24970,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>128.7942124349881</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25123,10 +25125,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.2459207102717</v>
       </c>
       <c r="T34" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>95.60825554758691</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>153.3005049606697</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -25211,10 +25213,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.2459207102717</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>165.4656608763786</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>40.55640745313457</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>113.0589209123511</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -25597,13 +25599,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.2459207102718</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>183.1857835501284</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>153.3005049606697</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,13 +25839,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>100.4154405304718</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>55.73584717546854</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.6516668090142</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>119.0142165604618</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>159.6457400831798</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>115.2459207102718</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>476829.8133035652</v>
+        <v>380752.0698085405</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>476829.8133035648</v>
+        <v>440009.9073964994</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540154.8071982269</v>
+        <v>476829.8133035654</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808771.743151516</v>
+        <v>808771.7431515158</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808771.7431515161</v>
+        <v>808771.743151516</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808771.743151516</v>
+        <v>808771.7431515161</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>808771.7431515158</v>
+        <v>808771.743151516</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808771.7431515158</v>
+        <v>808771.743151516</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808771.7431515162</v>
+        <v>808771.7431515158</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>808771.7431515161</v>
+        <v>893301.8409395296</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967403</v>
+        <v>127689.5065332735</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967402</v>
+        <v>149076.8868101134</v>
       </c>
       <c r="D2" t="n">
-        <v>183569.9230774012</v>
+        <v>162397.4547967404</v>
       </c>
       <c r="E2" t="n">
         <v>275374.4674448775</v>
@@ -26329,31 +26331,31 @@
         <v>275374.4674448775</v>
       </c>
       <c r="H2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="I2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="J2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="K2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="L2" t="n">
+        <v>275374.4674448774</v>
+      </c>
+      <c r="M2" t="n">
         <v>275374.4674448775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>275374.4674448774</v>
       </c>
       <c r="N2" t="n">
         <v>275374.4674448774</v>
       </c>
       <c r="O2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="P2" t="n">
-        <v>275374.4674448773</v>
+        <v>306897.3890738287</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>405732.881610464</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>107681.0950613574</v>
       </c>
       <c r="D3" t="n">
-        <v>79834.34398878396</v>
+        <v>64715.23234241612</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.271430143</v>
+        <v>445061.6638164767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>18201.7720316273</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18738.28695109873</v>
       </c>
       <c r="L3" t="n">
-        <v>19282.57122195019</v>
+        <v>11427.38254026748</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676275</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148742.1311545087</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7844.223654466972</v>
+        <v>11931.59823290191</v>
       </c>
       <c r="C4" t="n">
-        <v>7844.223654466971</v>
+        <v>9466.805597020575</v>
       </c>
       <c r="D4" t="n">
-        <v>10070.37597634434</v>
+        <v>7844.223654466978</v>
       </c>
       <c r="E4" t="n">
+        <v>13767.31913011279</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13767.31913011279</v>
+      </c>
+      <c r="G4" t="n">
         <v>13767.3191301128</v>
       </c>
-      <c r="F4" t="n">
-        <v>13767.31913011281</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>13767.31913011279</v>
       </c>
-      <c r="H4" t="n">
-        <v>13767.3191301128</v>
-      </c>
       <c r="I4" t="n">
-        <v>13767.3191301128</v>
+        <v>13767.31913011279</v>
       </c>
       <c r="J4" t="n">
         <v>13767.31913011279</v>
@@ -26457,7 +26459,7 @@
         <v>13767.31913011279</v>
       </c>
       <c r="P4" t="n">
-        <v>13767.31913011279</v>
+        <v>7330.627242042245</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>46508.81661816157</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161354</v>
+        <v>52950.2925327868</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
         <v>59310.17243984471</v>
@@ -26491,7 +26493,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984471</v>
@@ -26509,7 +26511,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-493789.4717901857</v>
+        <v>-336483.7899282539</v>
       </c>
       <c r="C6" t="n">
-        <v>97567.43073065998</v>
+        <v>-21021.30638105133</v>
       </c>
       <c r="D6" t="n">
-        <v>30617.39990800664</v>
+        <v>32852.19838824371</v>
       </c>
       <c r="E6" t="n">
-        <v>-167325.2955552231</v>
+        <v>-242764.6879415567</v>
       </c>
       <c r="F6" t="n">
-        <v>202296.97587492</v>
+        <v>202296.9758749199</v>
       </c>
       <c r="G6" t="n">
         <v>202296.97587492</v>
       </c>
       <c r="H6" t="n">
-        <v>202296.9758749199</v>
+        <v>202296.97587492</v>
       </c>
       <c r="I6" t="n">
-        <v>202296.9758749199</v>
+        <v>202296.97587492</v>
       </c>
       <c r="J6" t="n">
-        <v>153232.0311463754</v>
+        <v>184095.2038432927</v>
       </c>
       <c r="K6" t="n">
-        <v>202296.97587492</v>
+        <v>183558.6889238213</v>
       </c>
       <c r="L6" t="n">
-        <v>183014.4046529699</v>
+        <v>190869.5933346524</v>
       </c>
       <c r="M6" t="n">
-        <v>108379.2271281572</v>
+        <v>89392.79980045756</v>
       </c>
       <c r="N6" t="n">
         <v>202296.9758749199</v>
       </c>
       <c r="O6" t="n">
-        <v>202296.97587492</v>
+        <v>202296.9758749199</v>
       </c>
       <c r="P6" t="n">
-        <v>202296.9758749198</v>
+        <v>76518.29011588443</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>396.8599432675681</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>489.2814055581796</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="H3" t="n">
         <v>934.0648921175392</v>
@@ -26777,7 +26779,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663196</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="I4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000387</v>
@@ -26829,7 +26831,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>396.8599432675681</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>92.42146229061154</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58507285657402</v>
+        <v>59.18853535472527</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480611</v>
+        <v>385.5949512046344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.80736902450482</v>
       </c>
       <c r="D4" t="n">
-        <v>76.1882928351865</v>
+        <v>45.15127973838466</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985327</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>69.56693840343098</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.80736902450471</v>
       </c>
       <c r="L4" t="n">
-        <v>76.1882928351865</v>
+        <v>45.15127973838455</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
     </row>
   </sheetData>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.80736902450482</v>
       </c>
       <c r="L4" t="n">
-        <v>76.1882928351865</v>
+        <v>45.15127973838466</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>453.0592449337186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>61.50730839325798</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>280.1412402543975</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>284.6742184003632</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>268.809792025019</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>172.287072154917</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>36.35556163702396</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>6.983937293080518</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>0.8536232741981654</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>8.244203727124388</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>29.39009957217368</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>80.64867960308194</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>211.700972325449</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>200.908650486764</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>203.0986919097714</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>52.99952223486506</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.05615942593408985</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>6.362770893699702</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>50.59638981626027</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>112.1812459305357</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>101.1537442282648</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>86.55450303658563</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>59.92585143340278</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>32.17818490821953</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.03903540425582641</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>1.96696042435449</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>20.14413344592042</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>75.83124175992653</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>166.943307316557</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>250.2047420794826</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>310.4011071663214</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>345.3810396129355</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>350.9696659186328</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>331.4107031989578</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>282.8513677227062</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>212.409597525511</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>123.5570777563578</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>44.82211066997797</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>8.610369257611783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1573568339483591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.052416608181745</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>10.1641288211237</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>36.23451918520482</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>99.43029016159198</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>169.9422029097689</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>228.5082639826197</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>266.6583660292079</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>273.7160195112688</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>250.3966830878733</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>200.9654135395474</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>134.3400568619364</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>65.34214695359994</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>19.54817691074424</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.241977468943085</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.06923793474879904</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.8823107313344222</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>7.844544502227869</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>26.53348999322063</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>62.37936870534364</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>102.5084649677628</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>131.1755427294831</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>138.3062176399949</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>135.0176049141122</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>124.7106113707964</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>106.7114724515741</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>73.88149223928512</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>39.67189888345501</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>15.37626974516443</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>3.76987312479253</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.04812603989096854</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
         <v>0.3004027793744847</v>
@@ -32069,10 +32071,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32081,34 +32083,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32166,10 +32168,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32178,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
         <v>38.45624955336179</v>
@@ -32239,16 +32241,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N17" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P17" t="n">
         <v>539.9786897190645</v>
@@ -32260,7 +32262,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T17" t="n">
         <v>16.4376645838976</v>
@@ -32309,7 +32311,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32321,16 +32323,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
         <v>256.4624964168761</v>
@@ -32388,7 +32390,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32415,7 +32417,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
         <v>29.35413767523479</v>
@@ -32424,7 +32426,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34144,7 +34146,7 @@
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491896</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>47.81650378636687</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>49.79500702712474</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>38.71158060333224</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>46.79044561126696</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>60.50244746532695</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>29.03019834022996</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="M4" t="n">
-        <v>170.3060203105423</v>
+        <v>66.75615301339309</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>69.56693840343073</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>69.47287675867808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>30.11489103450205</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>74.63469219633413</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>115.0348063856628</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>121.5566023220418</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>101.312491777271</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>51.6183719674367</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>32.10076393540987</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>89.95388420274548</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>124.5243321071895</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>107.8004386434289</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>66.99100612521718</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068192</v>
+        <v>80.23897314188</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880151</v>
+        <v>87.43505227882891</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663196</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663196</v>
+        <v>7.332060448878991</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732829</v>
+        <v>142.3743074279355</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>103.9900317164676</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>86.19340501175058</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>497.4319917882564</v>
       </c>
       <c r="M12" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P12" t="n">
         <v>249.6795291235323</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35886,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N17" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P17" t="n">
         <v>308.745693963795</v>
@@ -35905,7 +35907,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L18" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M18" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N18" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K19" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M19" t="n">
         <v>303.6179906468033</v>
@@ -36054,13 +36056,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P19" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L21" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
         <v>366.9313322820405</v>
@@ -36215,13 +36217,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>63.9358343792246</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36452,13 +36454,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36692,10 +36694,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36920,7 +36922,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N30" t="n">
-        <v>559.9405577709381</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
         <v>335.424681996123</v>
@@ -37154,13 +37156,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>591.2668520422178</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
-        <v>640.5848321000387</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P33" t="n">
         <v>249.6795291235323</v>
@@ -37385,7 +37387,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37403,7 +37405,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820405</v>
@@ -37637,13 +37639,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>436.2707275254369</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37859,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37868,7 +37870,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N42" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
         <v>335.424681996123</v>
@@ -37877,10 +37879,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>245.9137357376028</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225033</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>397.6203974676406</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634695</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
